--- a/docs/assets/assets/afl_fixtures_2025_round_24.xlsx
+++ b/docs/assets/assets/afl_fixtures_2025_round_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterProjects\my_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA3AB75-EE3C-4C65-87EE-E07286CD40A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46412339-C5AF-4081-94B4-5A4C0F66A28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{9374563A-F70D-41F6-AA26-ACBFD3D87333}"/>
+    <workbookView xWindow="1065" yWindow="495" windowWidth="21405" windowHeight="20760" xr2:uid="{9374563A-F70D-41F6-AA26-ACBFD3D87333}"/>
   </bookViews>
   <sheets>
     <sheet name="AFL 2026 Fixtures" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t xml:space="preserve">Sydney Swans </t>
   </si>
@@ -201,6 +201,36 @@
   </si>
   <si>
     <t>https://www.afl.com.au/afl/matches/7163</t>
+  </si>
+  <si>
+    <t>Match ID</t>
+  </si>
+  <si>
+    <t>CD_M20250142407</t>
+  </si>
+  <si>
+    <t>CD_M20250142405</t>
+  </si>
+  <si>
+    <t>CD_M20250142401</t>
+  </si>
+  <si>
+    <t>CD_M20250142403</t>
+  </si>
+  <si>
+    <t>CD_M20250142406</t>
+  </si>
+  <si>
+    <t>CD_M20250142408</t>
+  </si>
+  <si>
+    <t>CD_M20250142402</t>
+  </si>
+  <si>
+    <t>CD_M20250142404</t>
+  </si>
+  <si>
+    <t>CD_M20250142409</t>
   </si>
 </sst>
 </file>
@@ -641,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57401C0-0D7F-465C-819C-F6F6EABA98A5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +688,7 @@
     <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -680,8 +710,11 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -703,8 +736,11 @@
       <c r="G2" t="s">
         <v>43</v>
       </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -726,8 +762,11 @@
       <c r="G3" t="s">
         <v>44</v>
       </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -749,8 +788,11 @@
       <c r="G4" t="s">
         <v>45</v>
       </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -772,8 +814,11 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -795,8 +840,11 @@
       <c r="G6" t="s">
         <v>48</v>
       </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -818,8 +866,11 @@
       <c r="G7" t="s">
         <v>49</v>
       </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -841,8 +892,11 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -864,8 +918,11 @@
       <c r="G9" t="s">
         <v>52</v>
       </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -886,6 +943,9 @@
       </c>
       <c r="G10" t="s">
         <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
